--- a/Files/Invested-Capital.xlsx
+++ b/Files/Invested-Capital.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Documents\GitHub\rule_one\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6434DDD-FB78-440F-BED1-B85E02331A7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{452AEA83-A3C5-4067-B67A-7F23D5DE235A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invested Capital" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,7 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +498,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,30 +864,12 @@
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
-        <f>SUM(B9:B13,B15,B17)</f>
-        <v>35154</v>
-      </c>
-      <c r="C19" s="10">
-        <f>SUM(C9:C13,C15,C17)</f>
-        <v>34419</v>
-      </c>
-      <c r="D19" s="10">
-        <f>SUM(D9:D13,D15,D17)</f>
-        <v>33804</v>
-      </c>
-      <c r="E19" s="10">
-        <f>SUM(E9:E13,E15,E17)</f>
-        <v>32203</v>
-      </c>
-      <c r="F19" s="10">
-        <f>SUM(F9:F13,F15,F17)</f>
-        <v>31785</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SUM(G9:G13,G15,G17)</f>
-        <v>32146</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
